--- a/excel/DegreeShow2017.xlsx
+++ b/excel/DegreeShow2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>timestamp</t>
   </si>
@@ -68,10 +68,7 @@
     <t>group</t>
   </si>
   <si>
-    <t>test project name</t>
-  </si>
-  <si>
-    <t>This project is .....</t>
+    <t>This project is about...</t>
   </si>
   <si>
     <t>Lighting, Shading, Pipeline, Gameplay Programmer</t>
@@ -84,9 +81,6 @@
   </si>
   <si>
     <t>individual</t>
-  </si>
-  <si>
-    <t>test project name2</t>
   </si>
 </sst>
 </file>
@@ -96,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -135,13 +129,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
@@ -155,18 +142,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,7 +184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,19 +197,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -387,7 +364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -397,64 +374,64 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" s="6" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -566,19 +543,6 @@
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="E22">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -591,10 +555,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="testmail@gmail.com"/>
-    <hyperlink ref="F2" r:id="rId2" display="www.google.com"/>
-    <hyperlink ref="D3" r:id="rId3" display="testmail@gmail.com"/>
-    <hyperlink ref="F3" r:id="rId4" display="www.google.com"/>
+    <hyperlink ref="F2" r:id="rId1" display="www.google.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="www.google.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/excel/DegreeShow2017.xlsx
+++ b/excel/DegreeShow2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>timestamp</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>name surname2</t>
+  </si>
+  <si>
+    <t>i1111112</t>
   </si>
   <si>
     <t>individual</t>
@@ -184,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,10 +205,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -313,7 +312,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -364,7 +363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -399,7 +398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -407,7 +406,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -419,7 +418,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>7</v>

--- a/excel/DegreeShow2017.xlsx
+++ b/excel/DegreeShow2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>timestamp</t>
   </si>
@@ -83,7 +83,13 @@
     <t>i1111112</t>
   </si>
   <si>
+    <t>testmail2@gmail.com</t>
+  </si>
+  <si>
     <t>individual</t>
+  </si>
+  <si>
+    <t>projectname2</t>
   </si>
 </sst>
 </file>
@@ -312,7 +318,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -409,7 +415,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>0</v>
@@ -418,10 +424,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>17</v>
